--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,154 +49,139 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>makes</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -560,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3255813953488372</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +716,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +742,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +768,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -861,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L11">
         <v>31</v>
@@ -879,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +872,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6915254237288135</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L12">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +898,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6714285714285714</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +924,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +950,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6388443017656501</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L15">
-        <v>796</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>796</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>450</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +976,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1002,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.5972222222222222</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>787</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>787</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1028,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5774647887323944</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1054,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5625</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1080,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5573770491803278</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1106,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5441176470588235</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1132,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.543859649122807</v>
+        <v>0.546875</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1158,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5329341317365269</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L23">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M23">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1184,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5037593984962406</v>
+        <v>0.51</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1210,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4923076923076923</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1236,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4819277108433735</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1262,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.463855421686747</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L27">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4615384615384616</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L28">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M28">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1329,13 +1314,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4519230769230769</v>
+        <v>0.3696498054474708</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1347,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1355,13 +1340,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.42</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1373,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1381,13 +1366,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3834586466165413</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1399,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1407,13 +1392,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3385214007782101</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L32">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1425,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>170</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1433,13 +1418,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3382352941176471</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L33">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1451,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>270</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1459,13 +1444,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2890410958904109</v>
+        <v>0.2767123287671233</v>
       </c>
       <c r="L34">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M34">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1477,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1485,13 +1470,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.277511961722488</v>
+        <v>0.2583423035522067</v>
       </c>
       <c r="L35">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="M35">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1503,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>151</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1511,13 +1496,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2733812949640288</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1529,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>101</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1537,13 +1522,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2612612612612613</v>
+        <v>0.2</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1555,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1563,13 +1548,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2508073196986007</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="L38">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="M38">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1581,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>696</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1589,13 +1574,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.225705329153605</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L39">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1607,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1615,13 +1600,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2013422818791946</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1633,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>119</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1641,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1986754966887417</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1659,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>121</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1667,13 +1652,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1920529801324503</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L42">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1685,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>610</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1693,25 +1678,25 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1882202304737516</v>
+        <v>0.1204545454545455</v>
       </c>
       <c r="L43">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="M43">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>634</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1719,25 +1704,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.138655462184874</v>
+        <v>0.1192411924119241</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>205</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1745,13 +1730,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1320754716981132</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1763,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1771,25 +1756,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1275862068965517</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>253</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1797,13 +1782,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1265206812652068</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="L47">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M47">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1815,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>359</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1823,13 +1808,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1162280701754386</v>
+        <v>0.06156716417910447</v>
       </c>
       <c r="L48">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M48">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1841,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>403</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1849,155 +1834,25 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.0954653937947494</v>
+        <v>0.04079861111111111</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50">
-        <v>0.08636363636363636</v>
-      </c>
-      <c r="L50">
-        <v>38</v>
-      </c>
-      <c r="M50">
-        <v>38</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K51">
-        <v>0.06169296987087518</v>
-      </c>
-      <c r="L51">
-        <v>43</v>
-      </c>
-      <c r="M51">
-        <v>44</v>
-      </c>
-      <c r="N51">
-        <v>0.98</v>
-      </c>
-      <c r="O51">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52">
-        <v>0.05503731343283582</v>
-      </c>
-      <c r="L52">
-        <v>59</v>
-      </c>
-      <c r="M52">
-        <v>59</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K53">
-        <v>0.05350553505535055</v>
-      </c>
-      <c r="L53">
-        <v>29</v>
-      </c>
-      <c r="M53">
-        <v>29</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54">
-        <v>0.03889369057908384</v>
-      </c>
-      <c r="L54">
-        <v>45</v>
-      </c>
-      <c r="M54">
-        <v>45</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
